--- a/Warehouse/AE/judgement_logs_run4o.xlsx
+++ b/Warehouse/AE/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday was not made, as both committee members could not reach an agreement.
+MSG: The decision regarding which movie to show on Friday has ended without an agreement.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for Friday’s movie was not made.
+MSG: The decision process did not result in any agreement for which movie to show, and thus, no decision was made.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function has been called and the decision recorded as no movie selected for Friday.
+MSG: The committee did not reach a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded.
+MSG: The movie "Barbie" has been successfully selected for the screening event.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The decision to select a movie was not reached, so no movie has been acquired for Friday.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies, "Barbie" and "Oppenheimer," have been successfully acquired.
+MSG: The rights to both movies have been acquired for the screening on Friday.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Since the function was successfully called and confirmed that there was no decision made, the process is complete. If there are any further questions or discussions needed, feel free to ask!
+MSG: The decision process concluded without selecting a movie for Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding the movie to show on Friday.
+MSG: The decision about which movie to play on Friday has not been made.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision did not result in any agreement on which movie to show on Friday.
+MSG: The decision about which movie to show on Friday has not been finalized.
 </t>
         </is>
       </c>
@@ -660,13 +660,13 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a selection for the movie to be shown on Friday, and thus no movie was acquired.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for both movies.
+MSG: The decision has been recorded, and no movie was selected for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: "Barbie" will be the movie shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee meeting resulted in no decision being made regarding the movie for Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making committee did not reach a consensus on the movie to show on Friday, resulting in no decision being made.
+MSG: The decision has been recorded, and no movie was selected.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was selected for Friday's showing.
+MSG: The decision about which movie to play on Friday could not be made.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function has been executed, and it confirms that no decision about Friday's movie was made.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been made.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for both movies has been recorded.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding the movie to show on Friday.
+MSG: The decision-making meeting did not reach a consensus on which movie to show on Friday. As a result, no movie will be acquired for that day.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected in this meeting.
+MSG: The decision process did not lead to an agreement on a movie for Friday, so there is no decision to report.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision about which movie to show on Friday.
+MSG: No decision was made regarding Friday's movie.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation ended without a decision about what movie to show on Friday.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been acquired, allowing for both "Barbie" and "Oppenheimer" to be shown.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show "Oppenheimer" has been executed successfully.
+MSG: The decision to acquire the rights for the movie "Oppenheimer" has been successfully made.
 </t>
         </is>
       </c>
@@ -990,13 +990,13 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie."
+MSG: The rights to both movies "Barbie" and "Oppenheimer" have been acquired for the Friday showing.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without an agreement on the movie to show on Friday. The function has been called.
+MSG: The decision process did not lead to a selection of a movie for Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation concluded without any decision being made regarding Friday's movie.
+MSG: The decision has been recorded as no decision on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights for "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision to acquire the rights for "Oppenheimer" has been recorded.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights to "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday could not be made, as there was no consensus between the committee members. Therefore, I confirm that no decision will be recorded.
+MSG: The decision has been recorded as no decision was reached regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding Friday's movie.
+MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision on a movie to show on Friday has not been made.
+MSG: The decision has been recorded as no decision on what movie to play on Friday.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that there was no agreement on the movie to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding Friday's movie.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding the movie for Friday.
+MSG: No decision was made about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process ended without a plan about what movie to show on Friday. Therefore, no acquisition will be made.
+MSG: The decision has been recorded as no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday's showing.
+MSG: The decision has been recorded as "no decision" regarding which movie to play on Friday.
 </t>
         </is>
       </c>
@@ -1320,13 +1320,13 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision regarding which movie to show on Friday.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision," indicating that the committee did not reach a consensus about which movie to show on Friday.
+MSG: The decision has been recorded, indicating that no movie has been chosen for Friday.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" have been acquired for the upcoming showing.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selected.
+MSG: The decision has been recorded, and no movie was selected to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for Friday's movie has been recorded as "no decision."
+MSG: The decision process concluded without agreeing on a movie for Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as not selecting a movie for Friday.
+MSG: The decision-making process did not result in a selection for Friday's movie.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has ended the conversation without a decision about which movie to show on Friday. Thus, I will call the no_decision function.
+MSG: The committee did not reach a decision on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1474,13 +1474,13 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been recorded.
+MSG: The decision has been recorded as no agreement was reached regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about what movie to play on Friday could not be made.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision outcome is that no movie was selected in this meeting.
+MSG: The decision has been recorded, and no movie will be shown on Friday as no agreement was reached.
 </t>
         </is>
       </c>
@@ -1540,13 +1540,13 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: A decision about Friday's movie was not made.
+MSG: The decision has been recorded as no movie being selected.
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a selection for Friday's movie, indicating that no decision has been made.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Oppenheimer".
+MSG: The decision has been recorded successfully. "Oppenheimer" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no agreement was reached regarding the movie choice for Friday.
+MSG: The decision process has concluded without a definitive choice for Friday's movie, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as 'no decision' regarding the movie for Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no_decision," and no movie has been selected for Friday.
+MSG: The decision regarding the movie to be shown on Friday has resulted in no consensus.
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision as no decision was made about which movie to show on Friday.
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1716,13 +1716,13 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully.
+MSG: It appears there has been no decision reached about what movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without selecting a movie for Friday, resulting in no agreement.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday was not made, so there will be no acquisition of movie rights.
+MSG: The decision regarding the movie for Friday has concluded without a selection.
 </t>
         </is>
       </c>
@@ -1782,13 +1782,13 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been acquired successfully.
+MSG: The decision has been recorded with no agreement on what movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has ended the conversation without reaching a decision about a movie for Friday, resulting in no choice being made.
+MSG: The decision regarding which movie to show on Friday ended without a conclusion.
 </t>
         </is>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was made to not acquire a movie for Friday, resulting in no consensus being reached.
+MSG: The decision has been recorded as no movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The decision regarding Friday's movie has not been made.
 </t>
         </is>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Oppenheimer" will be acquired for the screening on Friday.
+MSG: The decision has been recorded, and the rights for the movie "Oppenheimer" will be acquired.
 </t>
         </is>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No movie was selected in this meeting.
+MSG: The decision process concluded without reaching an agreement on a movie for Friday.
 </t>
         </is>
       </c>
@@ -1936,7 +1936,7 @@
       <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded, and "Barbie" is selected as the movie to acquire for Friday.
 </t>
         </is>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a selection for Friday's movie, resulting in no decision being made.
+MSG: The decision regarding the movie for Friday ended without a conclusive selection, and thus no decision was made.
 </t>
         </is>
       </c>

--- a/Warehouse/AE/judgement_logs_run4o.xlsx
+++ b/Warehouse/AE/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday has ended without an agreement.
+MSG: The decision process concluded without a clear choice for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process did not result in any agreement for which movie to show, and thus, no decision was made.
+MSG: The conversation ended without a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision about which movie to show on Friday.
+MSG: The decision has been recorded, indicating that no agreement was reached on a movie to show on Friday.
 </t>
         </is>
       </c>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been successfully selected for the screening event.
+MSG: The decision has been recorded as no decision regarding Friday's movie was made.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to select a movie was not reached, so no movie has been acquired for Friday.
+MSG: The decision regarding the movie for Friday has resulted in no consensus, as indicated by the call to the no_decision function.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired for the screening on Friday.
+MSG: The decision has been recorded, and the rights for both "Barbie" and "Oppenheimer" will be acquired.
 </t>
         </is>
       </c>
@@ -588,19 +588,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;27;04.json</t>
+          <t>./Warehouse/AE/run4o_08_11_2025 at_18;51;09.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without selecting a movie for Friday, resulting in no decision being made.
+MSG: The decision has been recorded. "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -610,13 +610,13 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;24;18.json</t>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;27;04.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to play on Friday has not been made.
+MSG: The decision-making process resulted in no agreement on what movie to show on Friday.
 </t>
         </is>
       </c>
@@ -632,19 +632,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;36;42.json</t>
+          <t>./Warehouse/AE/run4o_08_12_2025 at_18;41;16.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been finalized.
+MSG: The decision to acquire rights for both movies "Oppenheimer" and "Barbie" has been recorded.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -654,19 +654,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;34;13.json</t>
+          <t>./Warehouse/AE/run4o_08_11_2025 at_18;46;46.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision about which movie to show on Friday has resulted in no selection being made.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -676,19 +676,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;35;20.json</t>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;24;18.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was selected for Friday's showing.
+MSG: The decision to acquire the rights to "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -698,19 +698,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_13;09;09.json</t>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;36;42.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -720,13 +720,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_13;07;17.json</t>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;34;13.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -742,13 +742,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;59;48.json</t>
+          <t>./Warehouse/AE/run4o_08_16_2025 at_10;20;49.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was selected.
+MSG: No decision was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -764,13 +764,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;59;03.json</t>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;35;20.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to play on Friday could not be made.
+MSG: The decision indicates that no movie was selected to be shown on Friday.
 </t>
         </is>
       </c>
@@ -786,19 +786,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_28_2025 at_11;13;18.json</t>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_13;09;09.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+MSG: Based on the discussion, the conclusion is that "Barbie" was selected by both agents in this meeting. Therefore, I will call the function for "Barbie." 
+```functions.Barbie_was_selected()```
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -808,19 +809,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;30;42.json</t>
+          <t>./Warehouse/AE/run4o_08_12_2025 at_18;47;33.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: I've recorded the decision to acquire the rights for "Barbie" as the selected movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -830,19 +831,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;51;44.json</t>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_13;07;17.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully.
+MSG: The decision-making process did not result in a clear choice for Friday's movie, so no action will be taken regarding movie acquisition.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -852,13 +853,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_13;05;54.json</t>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;59;48.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making meeting did not reach a consensus on which movie to show on Friday. As a result, no movie will be acquired for that day.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -874,13 +875,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;21;49.json</t>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;59;03.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process did not lead to an agreement on a movie for Friday, so there is no decision to report.
+MSG: The decision on which movie to show has not been made.
 </t>
         </is>
       </c>
@@ -896,13 +897,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;45;07.json</t>
+          <t>./Warehouse/AE/run4o_discovery_04_28_2025 at_11;13;18.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding Friday's movie.
+MSG: The decision is recorded as no agreement was reached regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -918,19 +919,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;23;43.json</t>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;30;42.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selected for Friday.
+MSG: The decision to acquire the rights to "Oppenheimer" has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -940,7 +941,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_28_2025 at_11;10;41.json</t>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;51;44.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -962,19 +963,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;33;25.json</t>
+          <t>./Warehouse/AE/run4o_08_16_2025 at_10;24;56.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for the movie "Oppenheimer" has been successfully made.
+MSG: The decision has been recorded as no decision was made regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -984,19 +985,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_28_2025 at_11;14;21.json</t>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_13;05;54.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies "Barbie" and "Oppenheimer" have been acquired for the Friday showing.
+MSG: The decision has been recorded as no decision was made regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1006,19 +1007,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;28;51.json</t>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;21;49.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made, and no movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1028,13 +1029,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;07;56.json</t>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;45;07.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process did not lead to a selection of a movie for Friday, resulting in no decision being made.
+MSG: The decision has been recorded, and no agreement was reached on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1050,13 +1051,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;17;22.json</t>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;23;43.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision on which movie to show on Friday.
+MSG: The decision regarding which movie to show on Friday ended without a clear choice.
 </t>
         </is>
       </c>
@@ -1072,13 +1073,13 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_13;11;02.json</t>
+          <t>./Warehouse/AE/run4o_08_16_2025 at_10;15;08.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been confirmed.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1094,19 +1095,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;10;08.json</t>
+          <t>./Warehouse/AE/run4o_discovery_04_28_2025 at_11;10;41.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been recorded.
+MSG: The decision has been recorded to acquire the rights for both movies, "Barbie" and "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1116,19 +1117,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_13;01;08.json</t>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;33;25.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been confirmed.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1138,19 +1139,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_13;03;49.json</t>
+          <t>./Warehouse/AE/run4o_08_12_2025 at_18;48;41.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was reached regarding the movie for Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1160,19 +1161,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;18;22.json</t>
+          <t>./Warehouse/AE/run4o_discovery_04_28_2025 at_11;14;21.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1182,19 +1183,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;14;30.json</t>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;28;51.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision on what movie to play on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1204,13 +1205,13 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;45;58.json</t>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;07;56.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding Friday's movie.
+MSG: The decision has been recorded that no movie has been selected for Friday.
 </t>
         </is>
       </c>
@@ -1226,13 +1227,13 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_28_2025 at_11;12;22.json</t>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;17;22.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made about which movie to show on Friday.
+MSG: The decision has been recorded as no agreement was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1248,19 +1249,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;55;16.json</t>
+          <t>./Warehouse/AE/run4o_08_16_2025 at_10;22;17.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
+MSG: The committee did not reach a decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1270,19 +1271,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;49;36.json</t>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_13;11;02.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected for Friday.
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1292,13 +1293,13 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;31;43.json</t>
+          <t>./Warehouse/AE/run4o_08_12_2025 at_18;49;19.json</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding which movie to play on Friday.
+MSG: I have called the function for no decision, indicating that there was no consensus reached for a movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1314,19 +1315,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_13;02;00.json</t>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;10;08.json</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully.
+MSG: The decision has been recorded: "Oppenheimer" will be the movie that will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1336,19 +1337,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;55;56.json</t>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_13;01;08.json</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie has been chosen for Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1358,19 +1359,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_13;13;11.json</t>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_13;03;49.json</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The function for no decision has been called successfully, indicating that no agreement was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1380,13 +1381,13 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_13;12;03.json</t>
+          <t>./Warehouse/AE/run4o_08_12_2025 at_18;42;13.json</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was selected to be shown on Friday.
+MSG: The decision regarding Friday's movie has resulted in no conclusion being reached.
 </t>
         </is>
       </c>
@@ -1402,13 +1403,13 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_07_28_2025 at_10;47;51.json</t>
+          <t>./Warehouse/AE/run4o_08_12_2025 at_18;50;24.json</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without agreeing on a movie for Friday, resulting in no decision being made.
+MSG: The decision has been made, and no movie will be selected for Friday.
 </t>
         </is>
       </c>
@@ -1424,19 +1425,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_28_2025 at_11;15;20.json</t>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;18;22.json</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not result in a selection for Friday's movie.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1446,13 +1447,13 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_13;14;08.json</t>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;14;30.json</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision on which movie to show on Friday.
+MSG: It seems that there was no decision made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1468,13 +1469,13 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;54;22.json</t>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;45;58.json</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no agreement was reached regarding which movie to show on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday was made.
 </t>
         </is>
       </c>
@@ -1490,13 +1491,13 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;27;59.json</t>
+          <t>./Warehouse/AE/run4o_08_11_2025 at_18;45;25.json</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: The decision has been recorded as no decision on the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1512,13 +1513,13 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;19;51.json</t>
+          <t>./Warehouse/AE/run4o_discovery_04_28_2025 at_11;12;22.json</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be shown on Friday as no agreement was reached.
+MSG: The decision about which movie to show on Friday was not made. Therefore, no further action will be taken regarding acquiring movie rights.
 </t>
         </is>
       </c>
@@ -1534,19 +1535,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;09;09.json</t>
+          <t>./Warehouse/AE/run4o_08_11_2025 at_18;44;05.json</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired.
+MSG: The decision concluded without reaching an agreement on the movie, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1556,19 +1557,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;10;49.json</t>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;55;16.json</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected.
+MSG: The rights for both movies, "Oppenheimer" and "Barbie," have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1578,13 +1579,13 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_28_2025 at_11;08;27.json</t>
+          <t>./Warehouse/AE/run4o_08_16_2025 at_10;17;55.json</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selected for Friday.
+MSG: There was no decision reached regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1600,19 +1601,19 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_28_2025 at_11;09;22.json</t>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;49;36.json</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded successfully. "Oppenheimer" will be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1622,13 +1623,13 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_13;10;18.json</t>
+          <t>./Warehouse/AE/run4o_08_16_2025 at_10;18;33.json</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without a definitive choice for Friday's movie, resulting in no decision being made.
+MSG: The conversation appears to have ended without a clear decision about which movie will be shown on Friday. Therefore, I will record the decision as "no_decision."
 </t>
         </is>
       </c>
@@ -1644,13 +1645,13 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;29;36.json</t>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;31;43.json</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been made.
+MSG: The decision has been recorded as "no decision" regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1666,13 +1667,13 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;32;32.json</t>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_13;02;00.json</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has resulted in no consensus.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -1688,19 +1689,19 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;13;42.json</t>
+          <t>./Warehouse/AE/run4o_08_12_2025 at_18;43;48.json</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1710,13 +1711,13 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;11;46.json</t>
+          <t>./Warehouse/AE/run4o_08_16_2025 at_10;17;18.json</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: It appears there has been no decision reached about what movie to show on Friday.
+MSG: The decision process has concluded without a choice being made for Friday's movie.
 </t>
         </is>
       </c>
@@ -1732,13 +1733,13 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;25;05.json</t>
+          <t>./Warehouse/AE/run4o_08_12_2025 at_18;46;35.json</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -1754,19 +1755,19 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;22;50.json</t>
+          <t>./Warehouse/AE/run4o_08_12_2025 at_18;40;21.json</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday has concluded without a selection.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1776,13 +1777,13 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;15;10.json</t>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;55;56.json</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no agreement on what movie to show on Friday.
+MSG: The decision-making process ended without a selection for Friday's movie, leading to no choice being made.
 </t>
         </is>
       </c>
@@ -1798,19 +1799,19 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;16;29.json</t>
+          <t>./Warehouse/AE/run4o_08_16_2025 at_10;19;38.json</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday ended without a conclusion.
+MSG: The decision has been finalized to acquire the rights for "Oppenheimer" for the showing on Friday.
 </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1820,19 +1821,19 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;57;54.json</t>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_13;13;11.json</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie will be shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1842,13 +1843,13 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;43;53.json</t>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_13;12;03.json</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday's movie has not been made.
+MSG: The decision was recorded as no decision on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1864,19 +1865,19 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;50;45.json</t>
+          <t>./Warehouse/AE/run4o_discovery_07_28_2025 at_10;47;51.json</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for the movie "Oppenheimer" will be acquired.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1886,19 +1887,19 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_13;05;11.json</t>
+          <t>./Warehouse/AE/run4o_discovery_04_28_2025 at_11;15;20.json</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision is that no movie will be shown on Friday as the committee did not arrive at a consensus.
 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1908,13 +1909,13 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;47;57.json</t>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_13;14;08.json</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without reaching an agreement on a movie for Friday.
+MSG: The decision-making process concluded without arriving at a consensus on the movie for Friday, so the decision has been recorded as no decision made.
 </t>
         </is>
       </c>
@@ -1930,19 +1931,19 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;57;06.json</t>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;54;22.json</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and "Barbie" is selected as the movie to acquire for Friday.
+MSG: The decision has been made to not acquire a movie for Friday, as the committee did not reach a consensus on which film to show.
 </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1952,17 +1953,677 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>./Warehouse/AE/run4o_08_11_2025 at_18;50;01.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights for both movies have been successfully acquired.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;27;59.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, indicating that no movie was selected for showing on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_08_12_2025 at_18;38;31.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday resulted in no agreement, so the appropriate action has been taken.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_08_16_2025 at_10;23;57.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision" regarding the movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;19;51.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: No decision was made regarding the movie selection.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;09;09.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;10;49.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie to show on Friday resulted in no agreement.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_discovery_04_28_2025 at_11;08;27.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process for selecting a movie concluded without reaching a decision.
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_08_16_2025 at_10;21;28.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process has concluded without a clear agreement on which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_discovery_04_28_2025 at_11;09;22.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the movie "Oppenheimer" will be acquired for Friday's showing.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_13;10;18.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to select a movie for Friday has concluded without any agreement.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;29;36.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The conversation ended without a decision about what movie to play on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_08_11_2025 at_18;47;39.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie for Friday was not finalized, so I have recorded that no decision was made.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_08_11_2025 at_18;44;47.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" for the movie shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;32;32.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision as no decision about Friday's movie has been made.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;13;42.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process ended without a concrete plan for Friday's movie, resulting in no decision being made.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;11;46.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for both movies.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_08_11_2025 at_18;43;22.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie to be shown on Friday has ended without a clear choice.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;25;05.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision is recorded as no movie was selected in the meeting.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;22;50.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;15;10.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The conversation concluded without a decision on which movie will be shown on Friday, so there is no further action required.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_discovery_05_01_2025 at_10;16;29.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee has not made a decision regarding the movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;57;54.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision about Friday's movie.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_08_11_2025 at_18;42;23.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the movie "Barbie" will be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_08_11_2025 at_18;49;07.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the rights for "Barbie" have been acquired for Friday's movie screening.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;43;53.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie was selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;50;45.json</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights to "Oppenheimer" has been successfully recorded.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_13;05;11.json</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;47;57.json</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no specific movie has been selected for Friday's showing.
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>./Warehouse/AE/run4o_discovery_04_29_2025 at_12;57;06.json</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
           <t>./Warehouse/AE/run4o_discovery_04_28_2025 at_11;07;21.json</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday ended without a conclusive selection, and thus no decision was made.
-</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision regarding Friday's movie has been made.
+</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t xml:space="preserve">no_decision, </t>
         </is>
